--- a/data/Morris2013Fig1C-edited.xlsx
+++ b/data/Morris2013Fig1C-edited.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/Projects/ROS_focused/Project_media_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE626C9-06C0-7143-B555-B118F7A2B98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7A0743-3FCD-C240-B1B7-5B30334892A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16560" xr2:uid="{1B2506C8-1C1C-7E4A-BEAF-DACD46A07359}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16480" xr2:uid="{1B2506C8-1C1C-7E4A-BEAF-DACD46A07359}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="20">
   <si>
     <t>Buffer</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Morris2013Fig1C: has the raw HOOH production data for all tested buffers in both natural seawater (coastal water from near Savannah) and Turk’s Island artificial seawater recipe.</t>
+  </si>
+  <si>
+    <t>OriSource</t>
+  </si>
+  <si>
+    <t>Morris_2013_f1c</t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
   <dimension ref="A1:J679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,6 +491,9 @@
       <c r="F1" t="s">
         <v>16</v>
       </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -504,6 +513,9 @@
       </c>
       <c r="F2">
         <v>25.632479358143939</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
